--- a/data/tract.xlsx
+++ b/data/tract.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16B9540-05C8-4898-AF51-836675EDBB9A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +16,7 @@
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">Sheet2!#REF!</definedName>
     <definedName name="ExternalData_2" localSheetId="1" hidden="1">Sheet2!$A$1:$B$654</definedName>
     <definedName name="ExternalData_3" localSheetId="1" hidden="1">Sheet2!$A$655:$B$657</definedName>
-    <definedName name="ExternalData_3" localSheetId="0" hidden="1">Sheet3!$C$655:$D$657</definedName>
+    <definedName name="ExternalData_3" localSheetId="0" hidden="1">Sheet3!$C$655:$D$658</definedName>
     <definedName name="ExternalData_4" localSheetId="0" hidden="1">Sheet3!$A$1:$D$654</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -38,17 +39,17 @@
   <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" keepAlive="1" name="Query - tract (3)" description="Connection to the 'tract (3)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;tract (3)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [tract (3)]"/>
   </connection>
-  <connection id="4" xr16:uid="{97875CC3-1A9E-4620-93B1-C0F77007E9CB}" keepAlive="1" name="Query - tract (4)" description="Connection to the 'tract (4)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" keepAlive="1" name="Query - tract (4)" description="Connection to the 'tract (4)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=tract (4);Extended Properties=&quot;&quot;" command="SELECT * FROM [tract (4)]"/>
   </connection>
-  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" keepAlive="1" name="Query - tract (5)" description="Connection to the 'tract (5)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" keepAlive="1" name="Query - tract (5)" description="Connection to the 'tract (5)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;tract (5)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [tract (5)]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3940" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3945" uniqueCount="1325">
   <si>
     <t>bookpage</t>
   </si>
@@ -4017,6 +4018,12 @@
   </si>
   <si>
     <t>TRACT</t>
+  </si>
+  <si>
+    <t>653</t>
+  </si>
+  <si>
+    <t>begin update 63</t>
   </si>
 </sst>
 </file>
@@ -4104,16 +4111,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -4146,20 +4157,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4175,7 +4182,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_4" headers="0" connectionId="4" xr16:uid="{BB91F19B-5462-4D0E-94C7-BD17F8AA48E4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_4" headers="0" connectionId="4" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="5">
     <queryTableFields count="4">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -4188,7 +4195,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_3" headers="0" connectionId="5" xr16:uid="{DDE9470B-170B-420F-B436-A8996427B652}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_3" headers="0" connectionId="5" xr16:uid="{00000000-0016-0000-0000-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4" unboundColumnsRight="1">
     <queryTableFields count="3">
       <queryTableField id="1" name="bookpage" tableColumnId="1"/>
@@ -4200,7 +4207,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" headers="0" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" headers="0" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -4211,7 +4218,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_3" headers="0" connectionId="3" xr16:uid="{00000000-0016-0000-0000-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_3" headers="0" connectionId="3" xr16:uid="{00000000-0016-0000-0100-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4" unboundColumnsRight="1">
     <queryTableFields count="3">
       <queryTableField id="1" name="bookpage" tableColumnId="1"/>
@@ -4225,42 +4232,42 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B44663F-229B-476A-B1C1-0A67040B68BE}" name="tract__4" displayName="tract__4" ref="A1:D654" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1CCC7A79-DEF5-4042-A51C-0458DE447871}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{34ABAFB1-8C7A-4BF9-B4E8-BC635D62D09E}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{7B16DCA6-4C7C-4295-B5B0-05764434D16E}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{2989F369-FF21-4DBA-8CB1-8851F8AEBEE6}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{1CCC7A79-DEF5-4042-A51C-0458DE447871}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{34ABAFB1-8C7A-4BF9-B4E8-BC635D62D09E}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{7B16DCA6-4C7C-4295-B5B0-05764434D16E}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{2989F369-FF21-4DBA-8CB1-8851F8AEBEE6}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D2A5205B-CFFB-4935-B175-8B0240B6ED8D}" name="tract45" displayName="tract45" ref="C655:E657" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D2A5205B-CFFB-4935-B175-8B0240B6ED8D}" name="tract45" displayName="tract45" ref="C655:E657" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CE091500-81C1-48B0-BCCA-990178F70687}" uniqueName="1" name="bookpage" queryTableFieldId="1" headerRowDxfId="5" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{223FB563-023B-4DE3-9983-62CC09826EC7}" uniqueName="2" name="number" queryTableFieldId="2" headerRowDxfId="3" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F6E04F11-3A4D-4EBA-A252-CFC3FB031976}" uniqueName="3" name="Column1" queryTableFieldId="3" headerRowDxfId="1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CE091500-81C1-48B0-BCCA-990178F70687}" uniqueName="1" name="bookpage" queryTableFieldId="1" headerRowDxfId="17" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{223FB563-023B-4DE3-9983-62CC09826EC7}" uniqueName="2" name="number" queryTableFieldId="2" headerRowDxfId="15" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{F6E04F11-3A4D-4EBA-A252-CFC3FB031976}" uniqueName="3" name="Column1" queryTableFieldId="3" headerRowDxfId="13" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4ABF8393-7A1B-4C4C-BB70-8259FF95402B}" name="tract__2" displayName="tract__2" ref="A1:B654" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4ABF8393-7A1B-4C4C-BB70-8259FF95402B}" name="tract__2" displayName="tract__2" ref="A1:B654" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DB3A19BF-684E-4CC1-BE08-4E14547574BD}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{32ACBF44-9F2B-4114-B78B-C50AE602EC58}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{DB3A19BF-684E-4CC1-BE08-4E14547574BD}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{32ACBF44-9F2B-4114-B78B-C50AE602EC58}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{42B12ABE-3767-4130-8E88-924D23BEDE29}" name="tract4" displayName="tract4" ref="A655:C657" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{42B12ABE-3767-4130-8E88-924D23BEDE29}" name="tract4" displayName="tract4" ref="A655:C657" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8887D2AC-C7C7-444D-9388-CF9605CB748F}" uniqueName="1" name="bookpage" queryTableFieldId="1" headerRowDxfId="17" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{89299A66-93CA-4241-B6BE-4407871E52ED}" uniqueName="2" name="number" queryTableFieldId="2" headerRowDxfId="15" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{DDB82207-4140-4567-9835-55B444EEA3E7}" uniqueName="3" name="Column1" queryTableFieldId="3" headerRowDxfId="13" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{8887D2AC-C7C7-444D-9388-CF9605CB748F}" uniqueName="1" name="bookpage" queryTableFieldId="1" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{89299A66-93CA-4241-B6BE-4407871E52ED}" uniqueName="2" name="number" queryTableFieldId="2" headerRowDxfId="3" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{DDB82207-4140-4567-9835-55B444EEA3E7}" uniqueName="3" name="Column1" queryTableFieldId="3" headerRowDxfId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4529,10 +4536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28BB042-9158-4CD2-B387-663D10D4BA4F}">
-  <dimension ref="A1:E657"/>
+  <dimension ref="A1:E658"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A625" workbookViewId="0">
-      <selection activeCell="A658" sqref="A658"/>
+      <selection activeCell="A659" sqref="A659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13746,6 +13753,23 @@
       </c>
       <c r="E657" s="1" t="s">
         <v>1310</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A658" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="D658" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E658" s="1" t="s">
+        <v>1324</v>
       </c>
     </row>
   </sheetData>
